--- a/Education/fourth-grade-math-performance.xlsx
+++ b/Education/fourth-grade-math-performance.xlsx
@@ -1,10 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nithin Reddy Malyala\Desktop\GA 2020\Health-Literacy-COVID19\Education\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EB49B9-9C71-4B77-A8AF-53B99B14ADB4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Indicator S-1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -239,11 +250,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -281,6 +289,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -605,29 +621,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Indicator S-1"/>
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -662,7 +681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -697,7 +716,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -732,7 +751,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -767,7 +786,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -802,7 +821,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -837,7 +856,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -872,7 +891,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -907,7 +926,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -942,7 +961,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -977,7 +996,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1012,7 +1031,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1047,7 +1066,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1082,7 +1101,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1117,7 +1136,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1152,7 +1171,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1187,7 +1206,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1222,7 +1241,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1257,7 +1276,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1292,7 +1311,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1327,7 +1346,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1362,7 +1381,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1397,7 +1416,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1432,7 +1451,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1467,7 +1486,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1502,7 +1521,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1537,7 +1556,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -1572,7 +1591,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -1607,7 +1626,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1642,7 +1661,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -1677,7 +1696,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -1712,7 +1731,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -1747,7 +1766,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -1782,7 +1801,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -1817,7 +1836,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -1852,7 +1871,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -1887,7 +1906,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -1922,7 +1941,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -1957,7 +1976,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -1992,7 +2011,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -2027,7 +2046,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -2062,7 +2081,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -2097,7 +2116,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -2132,7 +2151,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -2167,7 +2186,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -2202,7 +2221,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -2237,7 +2256,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -2272,7 +2291,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -2307,7 +2326,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -2342,7 +2361,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -2377,7 +2396,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -2412,12 +2431,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="C55" s="1">
         <v>237</v>
@@ -2447,7 +2466,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -2482,7 +2501,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>68</v>
       </c>
@@ -2517,36 +2536,37 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>